--- a/data/processed/CHES_2014.vote.keys.combined.xlsx
+++ b/data/processed/CHES_2014.vote.keys.combined.xlsx
@@ -86,15 +86,15 @@
     <t xml:space="preserve">Open VLD</t>
   </si>
   <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVDA+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parti Populaire</t>
   </si>
   <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVDA+</t>
-  </si>
-  <si>
     <t xml:space="preserve">SP.A</t>
   </si>
   <si>
@@ -143,24 +143,24 @@
     <t xml:space="preserve">ANO 2011</t>
   </si>
   <si>
+    <t xml:space="preserve">KDU-ČSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSČM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Úsvit přímé demokracie Tomia Okamury</t>
+  </si>
+  <si>
     <t xml:space="preserve">ČSSD</t>
   </si>
   <si>
-    <t xml:space="preserve">KDU-ČSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSČM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Úsvit přímé demokracie Tomia Okamury</t>
-  </si>
-  <si>
     <t xml:space="preserve">DE</t>
   </si>
   <si>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">Nouveau Centre</t>
   </si>
   <si>
+    <t xml:space="preserve">PR (Parti Radical Valoisien)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS (Parti Socialiste)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parti Radical de Gauche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR (Parti Radical Valoisien)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS (Parti Socialiste)</t>
   </si>
   <si>
     <t xml:space="preserve">UMP (Union pour un Mouvement Populaire)</t>
@@ -1287,22 +1287,22 @@
         <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>7.75</v>
+        <v>2.5999999</v>
       </c>
       <c r="E16" t="n">
-        <v>8.5</v>
+        <v>2.4000001</v>
       </c>
       <c r="F16" t="n">
-        <v>7.5</v>
+        <v>3.4000001</v>
       </c>
       <c r="G16" t="n">
-        <v>6.5</v>
+        <v>2.5999999</v>
       </c>
       <c r="H16" t="n">
-        <v>5.3333335</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="17">
@@ -1313,22 +1313,22 @@
         <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>2.5999999</v>
+        <v>0.40000001</v>
       </c>
       <c r="E17" t="n">
-        <v>2.4000001</v>
+        <v>0.2</v>
       </c>
       <c r="F17" t="n">
-        <v>3.4000001</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5999999</v>
+        <v>8.3999996</v>
       </c>
       <c r="H17" t="n">
-        <v>2.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1339,22 +1339,22 @@
         <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>0.40000001</v>
+        <v>7.75</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2</v>
+        <v>8.5</v>
       </c>
       <c r="F18" t="n">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="G18" t="n">
-        <v>8.3999996</v>
+        <v>6.5</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5.3333335</v>
       </c>
     </row>
     <row r="19">
@@ -1729,22 +1729,22 @@
         <v>43</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>3.1428571</v>
+        <v>5.9285712</v>
       </c>
       <c r="E33" t="n">
-        <v>2.7142856</v>
+        <v>5.5714288</v>
       </c>
       <c r="F33" t="n">
-        <v>4.4285712</v>
+        <v>7.6428571</v>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>2.4615386</v>
       </c>
       <c r="H33" t="n">
-        <v>5.2307692</v>
+        <v>5.5384617</v>
       </c>
     </row>
     <row r="34">
@@ -1755,22 +1755,22 @@
         <v>44</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>5.9285712</v>
+        <v>1.0714285</v>
       </c>
       <c r="E34" t="n">
-        <v>5.5714288</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>7.6428571</v>
+        <v>6.5714288</v>
       </c>
       <c r="G34" t="n">
-        <v>2.4615386</v>
+        <v>5.6923075</v>
       </c>
       <c r="H34" t="n">
-        <v>5.5384617</v>
+        <v>5.4615383</v>
       </c>
     </row>
     <row r="35">
@@ -1781,22 +1781,22 @@
         <v>45</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0714285</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>8.1428576</v>
       </c>
       <c r="F35" t="n">
-        <v>6.5714288</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>5.6923075</v>
+        <v>2.1538463</v>
       </c>
       <c r="H35" t="n">
-        <v>5.4615383</v>
+        <v>3.1538463</v>
       </c>
     </row>
     <row r="36">
@@ -1807,22 +1807,22 @@
         <v>46</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>7.2142859</v>
       </c>
       <c r="E36" t="n">
-        <v>8.1428576</v>
+        <v>7.8571429</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G36" t="n">
-        <v>2.1538463</v>
+        <v>1.9230769</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1538463</v>
+        <v>5.0769229</v>
       </c>
     </row>
     <row r="37">
@@ -1833,22 +1833,22 @@
         <v>47</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>7.2142859</v>
+        <v>7.6923075</v>
       </c>
       <c r="E37" t="n">
-        <v>7.8571429</v>
+        <v>5.3333335</v>
       </c>
       <c r="F37" t="n">
-        <v>5.5</v>
+        <v>7.7142859</v>
       </c>
       <c r="G37" t="n">
-        <v>1.9230769</v>
+        <v>9.4615383</v>
       </c>
       <c r="H37" t="n">
-        <v>5.0769229</v>
+        <v>8.6153851</v>
       </c>
     </row>
     <row r="38">
@@ -1859,22 +1859,22 @@
         <v>48</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7.6923075</v>
+        <v>3.1428571</v>
       </c>
       <c r="E38" t="n">
-        <v>5.3333335</v>
+        <v>2.7142856</v>
       </c>
       <c r="F38" t="n">
-        <v>7.7142859</v>
+        <v>4.4285712</v>
       </c>
       <c r="G38" t="n">
-        <v>9.4615383</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
-        <v>8.6153851</v>
+        <v>5.2307692</v>
       </c>
     </row>
     <row r="39">
@@ -3029,22 +3029,22 @@
         <v>98</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>3.8181818</v>
+        <v>6.1428571</v>
       </c>
       <c r="E83" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="F83" t="n">
-        <v>3.4166667</v>
+        <v>5.8571429</v>
       </c>
       <c r="G83" t="n">
-        <v>3.7777777</v>
+        <v>3.5</v>
       </c>
       <c r="H83" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -3055,22 +3055,22 @@
         <v>99</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
-        <v>6.1428571</v>
+        <v>3.8333333</v>
       </c>
       <c r="E84" t="n">
-        <v>6.5</v>
+        <v>3.8333333</v>
       </c>
       <c r="F84" t="n">
-        <v>5.8571429</v>
+        <v>3.3636363</v>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="85">
@@ -3081,22 +3081,22 @@
         <v>100</v>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
-        <v>3.8333333</v>
+        <v>3.8181818</v>
       </c>
       <c r="E85" t="n">
-        <v>3.8333333</v>
+        <v>3.75</v>
       </c>
       <c r="F85" t="n">
-        <v>3.3636363</v>
+        <v>3.4166667</v>
       </c>
       <c r="G85" t="n">
-        <v>3.2</v>
+        <v>3.7777777</v>
       </c>
       <c r="H85" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="86">
